--- a/code/balcon_numa.xlsx
+++ b/code/balcon_numa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,7 +665,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>3</v>
@@ -674,25 +674,25 @@
         <v>16</v>
       </c>
       <c r="E7" t="n">
-        <v>32768</v>
+        <v>65536</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H7" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1.078125</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>371</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -700,7 +700,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>3</v>
@@ -709,7 +709,7 @@
         <v>16</v>
       </c>
       <c r="E8" t="n">
-        <v>32768</v>
+        <v>65536</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
@@ -735,7 +735,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>3</v>
@@ -744,16 +744,16 @@
         <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>32768</v>
+        <v>65536</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H9" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -770,7 +770,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
         <v>3</v>
@@ -779,16 +779,16 @@
         <v>16</v>
       </c>
       <c r="E10" t="n">
-        <v>32768</v>
+        <v>65536</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H10" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -805,7 +805,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C11" t="n">
         <v>3</v>
@@ -814,25 +814,25 @@
         <v>16</v>
       </c>
       <c r="E11" t="n">
-        <v>32768</v>
+        <v>65536</v>
       </c>
       <c r="F11" t="n">
         <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H11" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="I11" t="n">
-        <v>1.6484375</v>
+        <v>0.41015625</v>
       </c>
       <c r="J11" t="n">
-        <v>331</v>
+        <v>135</v>
       </c>
       <c r="K11" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -846,19 +846,19 @@
         <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E12" t="n">
         <v>65536</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H12" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I12" t="n">
         <v>1.078125</v>
@@ -867,7 +867,7 @@
         <v>371</v>
       </c>
       <c r="K12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -881,19 +881,19 @@
         <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E13" t="n">
         <v>65536</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -916,19 +916,19 @@
         <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E14" t="n">
         <v>65536</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H14" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -951,19 +951,19 @@
         <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E15" t="n">
         <v>65536</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -986,19 +986,19 @@
         <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E16" t="n">
         <v>65536</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H16" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I16" t="n">
         <v>0.41015625</v>
@@ -1015,34 +1015,34 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>3</v>
+      </c>
+      <c r="D17" t="n">
+        <v>32</v>
+      </c>
+      <c r="E17" t="n">
+        <v>131072</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2</v>
+      </c>
+      <c r="G17" t="n">
         <v>5</v>
       </c>
-      <c r="C17" t="n">
-        <v>3</v>
-      </c>
-      <c r="D17" t="n">
-        <v>16</v>
-      </c>
-      <c r="E17" t="n">
-        <v>65536</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" t="n">
-        <v>14</v>
-      </c>
       <c r="H17" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1.078125</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>371</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -1050,19 +1050,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
         <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E18" t="n">
-        <v>65536</v>
+        <v>131072</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G18" t="n">
         <v>4</v>
@@ -1085,25 +1085,25 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C19" t="n">
         <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E19" t="n">
-        <v>65536</v>
+        <v>131072</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G19" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H19" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1120,25 +1120,25 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C20" t="n">
         <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E20" t="n">
-        <v>65536</v>
+        <v>131072</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1155,734 +1155,34 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C21" t="n">
         <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E21" t="n">
-        <v>65536</v>
+        <v>131072</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G21" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H21" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I21" t="n">
-        <v>1.6484375</v>
+        <v>0.41015625</v>
       </c>
       <c r="J21" t="n">
-        <v>331</v>
+        <v>135</v>
       </c>
       <c r="K21" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>0</v>
-      </c>
-      <c r="C22" t="n">
-        <v>3</v>
-      </c>
-      <c r="D22" t="n">
-        <v>32</v>
-      </c>
-      <c r="E22" t="n">
-        <v>65536</v>
-      </c>
-      <c r="F22" t="n">
-        <v>2</v>
-      </c>
-      <c r="G22" t="n">
-        <v>7</v>
-      </c>
-      <c r="H22" t="n">
-        <v>9</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1.078125</v>
-      </c>
-      <c r="J22" t="n">
-        <v>371</v>
-      </c>
-      <c r="K22" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C23" t="n">
-        <v>3</v>
-      </c>
-      <c r="D23" t="n">
-        <v>32</v>
-      </c>
-      <c r="E23" t="n">
-        <v>65536</v>
-      </c>
-      <c r="F23" t="n">
-        <v>2</v>
-      </c>
-      <c r="G23" t="n">
-        <v>6</v>
-      </c>
-      <c r="H23" t="n">
-        <v>6</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>2</v>
-      </c>
-      <c r="C24" t="n">
-        <v>3</v>
-      </c>
-      <c r="D24" t="n">
-        <v>32</v>
-      </c>
-      <c r="E24" t="n">
-        <v>65536</v>
-      </c>
-      <c r="F24" t="n">
-        <v>2</v>
-      </c>
-      <c r="G24" t="n">
-        <v>8</v>
-      </c>
-      <c r="H24" t="n">
-        <v>8</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>3</v>
-      </c>
-      <c r="C25" t="n">
-        <v>3</v>
-      </c>
-      <c r="D25" t="n">
-        <v>32</v>
-      </c>
-      <c r="E25" t="n">
-        <v>65536</v>
-      </c>
-      <c r="F25" t="n">
-        <v>2</v>
-      </c>
-      <c r="G25" t="n">
-        <v>2</v>
-      </c>
-      <c r="H25" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>4</v>
-      </c>
-      <c r="C26" t="n">
-        <v>3</v>
-      </c>
-      <c r="D26" t="n">
-        <v>32</v>
-      </c>
-      <c r="E26" t="n">
-        <v>65536</v>
-      </c>
-      <c r="F26" t="n">
-        <v>2</v>
-      </c>
-      <c r="G26" t="n">
-        <v>9</v>
-      </c>
-      <c r="H26" t="n">
-        <v>11</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.41015625</v>
-      </c>
-      <c r="J26" t="n">
-        <v>135</v>
-      </c>
-      <c r="K26" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>5</v>
-      </c>
-      <c r="C27" t="n">
-        <v>3</v>
-      </c>
-      <c r="D27" t="n">
-        <v>32</v>
-      </c>
-      <c r="E27" t="n">
-        <v>65536</v>
-      </c>
-      <c r="F27" t="n">
-        <v>2</v>
-      </c>
-      <c r="G27" t="n">
-        <v>9</v>
-      </c>
-      <c r="H27" t="n">
-        <v>9</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>6</v>
-      </c>
-      <c r="C28" t="n">
-        <v>3</v>
-      </c>
-      <c r="D28" t="n">
-        <v>32</v>
-      </c>
-      <c r="E28" t="n">
-        <v>65536</v>
-      </c>
-      <c r="F28" t="n">
-        <v>2</v>
-      </c>
-      <c r="G28" t="n">
-        <v>4</v>
-      </c>
-      <c r="H28" t="n">
-        <v>4</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>7</v>
-      </c>
-      <c r="C29" t="n">
-        <v>3</v>
-      </c>
-      <c r="D29" t="n">
-        <v>32</v>
-      </c>
-      <c r="E29" t="n">
-        <v>65536</v>
-      </c>
-      <c r="F29" t="n">
-        <v>2</v>
-      </c>
-      <c r="G29" t="n">
-        <v>4</v>
-      </c>
-      <c r="H29" t="n">
-        <v>4</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>8</v>
-      </c>
-      <c r="C30" t="n">
-        <v>3</v>
-      </c>
-      <c r="D30" t="n">
-        <v>32</v>
-      </c>
-      <c r="E30" t="n">
-        <v>65536</v>
-      </c>
-      <c r="F30" t="n">
-        <v>2</v>
-      </c>
-      <c r="G30" t="n">
-        <v>3</v>
-      </c>
-      <c r="H30" t="n">
-        <v>3</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>9</v>
-      </c>
-      <c r="C31" t="n">
-        <v>3</v>
-      </c>
-      <c r="D31" t="n">
-        <v>32</v>
-      </c>
-      <c r="E31" t="n">
-        <v>65536</v>
-      </c>
-      <c r="F31" t="n">
-        <v>2</v>
-      </c>
-      <c r="G31" t="n">
-        <v>7</v>
-      </c>
-      <c r="H31" t="n">
-        <v>13</v>
-      </c>
-      <c r="I31" t="n">
-        <v>1.6484375</v>
-      </c>
-      <c r="J31" t="n">
-        <v>331</v>
-      </c>
-      <c r="K31" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>0</v>
-      </c>
-      <c r="C32" t="n">
-        <v>3</v>
-      </c>
-      <c r="D32" t="n">
-        <v>32</v>
-      </c>
-      <c r="E32" t="n">
-        <v>131072</v>
-      </c>
-      <c r="F32" t="n">
-        <v>2</v>
-      </c>
-      <c r="G32" t="n">
-        <v>5</v>
-      </c>
-      <c r="H32" t="n">
-        <v>7</v>
-      </c>
-      <c r="I32" t="n">
-        <v>1.078125</v>
-      </c>
-      <c r="J32" t="n">
-        <v>371</v>
-      </c>
-      <c r="K32" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>1</v>
-      </c>
-      <c r="C33" t="n">
-        <v>3</v>
-      </c>
-      <c r="D33" t="n">
-        <v>32</v>
-      </c>
-      <c r="E33" t="n">
-        <v>131072</v>
-      </c>
-      <c r="F33" t="n">
-        <v>2</v>
-      </c>
-      <c r="G33" t="n">
-        <v>4</v>
-      </c>
-      <c r="H33" t="n">
-        <v>4</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>2</v>
-      </c>
-      <c r="C34" t="n">
-        <v>3</v>
-      </c>
-      <c r="D34" t="n">
-        <v>32</v>
-      </c>
-      <c r="E34" t="n">
-        <v>131072</v>
-      </c>
-      <c r="F34" t="n">
-        <v>2</v>
-      </c>
-      <c r="G34" t="n">
-        <v>5</v>
-      </c>
-      <c r="H34" t="n">
-        <v>5</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>3</v>
-      </c>
-      <c r="C35" t="n">
-        <v>3</v>
-      </c>
-      <c r="D35" t="n">
-        <v>32</v>
-      </c>
-      <c r="E35" t="n">
-        <v>131072</v>
-      </c>
-      <c r="F35" t="n">
-        <v>2</v>
-      </c>
-      <c r="G35" t="n">
-        <v>2</v>
-      </c>
-      <c r="H35" t="n">
-        <v>2</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>4</v>
-      </c>
-      <c r="C36" t="n">
-        <v>3</v>
-      </c>
-      <c r="D36" t="n">
-        <v>32</v>
-      </c>
-      <c r="E36" t="n">
-        <v>131072</v>
-      </c>
-      <c r="F36" t="n">
-        <v>2</v>
-      </c>
-      <c r="G36" t="n">
-        <v>6</v>
-      </c>
-      <c r="H36" t="n">
-        <v>7</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0.41015625</v>
-      </c>
-      <c r="J36" t="n">
-        <v>135</v>
-      </c>
-      <c r="K36" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>5</v>
-      </c>
-      <c r="C37" t="n">
-        <v>3</v>
-      </c>
-      <c r="D37" t="n">
-        <v>32</v>
-      </c>
-      <c r="E37" t="n">
-        <v>131072</v>
-      </c>
-      <c r="F37" t="n">
-        <v>2</v>
-      </c>
-      <c r="G37" t="n">
-        <v>7</v>
-      </c>
-      <c r="H37" t="n">
-        <v>7</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>6</v>
-      </c>
-      <c r="C38" t="n">
-        <v>3</v>
-      </c>
-      <c r="D38" t="n">
-        <v>32</v>
-      </c>
-      <c r="E38" t="n">
-        <v>131072</v>
-      </c>
-      <c r="F38" t="n">
-        <v>2</v>
-      </c>
-      <c r="G38" t="n">
-        <v>2</v>
-      </c>
-      <c r="H38" t="n">
-        <v>2</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>7</v>
-      </c>
-      <c r="C39" t="n">
-        <v>3</v>
-      </c>
-      <c r="D39" t="n">
-        <v>32</v>
-      </c>
-      <c r="E39" t="n">
-        <v>131072</v>
-      </c>
-      <c r="F39" t="n">
-        <v>2</v>
-      </c>
-      <c r="G39" t="n">
-        <v>3</v>
-      </c>
-      <c r="H39" t="n">
-        <v>3</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>8</v>
-      </c>
-      <c r="C40" t="n">
-        <v>3</v>
-      </c>
-      <c r="D40" t="n">
-        <v>32</v>
-      </c>
-      <c r="E40" t="n">
-        <v>131072</v>
-      </c>
-      <c r="F40" t="n">
-        <v>2</v>
-      </c>
-      <c r="G40" t="n">
-        <v>2</v>
-      </c>
-      <c r="H40" t="n">
-        <v>2</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>9</v>
-      </c>
-      <c r="C41" t="n">
-        <v>3</v>
-      </c>
-      <c r="D41" t="n">
-        <v>32</v>
-      </c>
-      <c r="E41" t="n">
-        <v>131072</v>
-      </c>
-      <c r="F41" t="n">
-        <v>2</v>
-      </c>
-      <c r="G41" t="n">
-        <v>4</v>
-      </c>
-      <c r="H41" t="n">
-        <v>7</v>
-      </c>
-      <c r="I41" t="n">
-        <v>1.6484375</v>
-      </c>
-      <c r="J41" t="n">
-        <v>331</v>
-      </c>
-      <c r="K41" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/code/balcon_numa.xlsx
+++ b/code/balcon_numa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,19 +505,19 @@
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="H2" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I2" t="n">
-        <v>1.078125</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>371</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H3" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -575,10 +575,10 @@
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H4" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -610,10 +610,10 @@
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -645,19 +645,19 @@
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0.41015625</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -665,7 +665,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
         <v>3</v>
@@ -674,25 +674,25 @@
         <v>16</v>
       </c>
       <c r="E7" t="n">
-        <v>65536</v>
+        <v>32768</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H7" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I7" t="n">
-        <v>1.078125</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>371</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -700,7 +700,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
         <v>3</v>
@@ -709,16 +709,16 @@
         <v>16</v>
       </c>
       <c r="E8" t="n">
-        <v>65536</v>
+        <v>32768</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
         <v>3</v>
@@ -744,25 +744,25 @@
         <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>65536</v>
+        <v>32768</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="H9" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>0.28125</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -770,7 +770,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C10" t="n">
         <v>3</v>
@@ -779,16 +779,16 @@
         <v>16</v>
       </c>
       <c r="E10" t="n">
-        <v>65536</v>
+        <v>32768</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -805,7 +805,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C11" t="n">
         <v>3</v>
@@ -814,25 +814,25 @@
         <v>16</v>
       </c>
       <c r="E11" t="n">
-        <v>65536</v>
+        <v>32768</v>
       </c>
       <c r="F11" t="n">
         <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="H11" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="I11" t="n">
-        <v>0.41015625</v>
+        <v>0.25</v>
       </c>
       <c r="J11" t="n">
-        <v>135</v>
+        <v>17</v>
       </c>
       <c r="K11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -846,28 +846,28 @@
         <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E12" t="n">
         <v>65536</v>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H12" t="n">
         <v>9</v>
       </c>
       <c r="I12" t="n">
-        <v>1.078125</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>371</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -881,19 +881,19 @@
         <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E13" t="n">
         <v>65536</v>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H13" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -916,13 +916,13 @@
         <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E14" t="n">
         <v>65536</v>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
         <v>8</v>
@@ -951,19 +951,19 @@
         <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E15" t="n">
         <v>65536</v>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -986,28 +986,28 @@
         <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E16" t="n">
         <v>65536</v>
       </c>
       <c r="F16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0.41015625</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1015,34 +1015,34 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C17" t="n">
         <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E17" t="n">
-        <v>131072</v>
+        <v>65536</v>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
         <v>5</v>
       </c>
       <c r="H17" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I17" t="n">
-        <v>1.078125</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>371</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1050,25 +1050,25 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C18" t="n">
         <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E18" t="n">
-        <v>131072</v>
+        <v>65536</v>
       </c>
       <c r="F18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H18" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1085,34 +1085,34 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C19" t="n">
         <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E19" t="n">
-        <v>131072</v>
+        <v>65536</v>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H19" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>0.28125</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -1120,25 +1120,25 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C20" t="n">
         <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E20" t="n">
-        <v>131072</v>
+        <v>65536</v>
       </c>
       <c r="F20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1155,33 +1155,733 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
+        <v>9</v>
+      </c>
+      <c r="C21" t="n">
+        <v>3</v>
+      </c>
+      <c r="D21" t="n">
+        <v>16</v>
+      </c>
+      <c r="E21" t="n">
+        <v>65536</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" t="n">
+        <v>11</v>
+      </c>
+      <c r="H21" t="n">
+        <v>12</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="J21" t="n">
+        <v>17</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D22" t="n">
+        <v>32</v>
+      </c>
+      <c r="E22" t="n">
+        <v>65536</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2</v>
+      </c>
+      <c r="G22" t="n">
+        <v>10</v>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="n">
+        <v>3</v>
+      </c>
+      <c r="D23" t="n">
+        <v>32</v>
+      </c>
+      <c r="E23" t="n">
+        <v>65536</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G23" t="n">
+        <v>3</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>2</v>
+      </c>
+      <c r="C24" t="n">
+        <v>3</v>
+      </c>
+      <c r="D24" t="n">
+        <v>32</v>
+      </c>
+      <c r="E24" t="n">
+        <v>65536</v>
+      </c>
+      <c r="F24" t="n">
+        <v>2</v>
+      </c>
+      <c r="G24" t="n">
+        <v>9</v>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>3</v>
+      </c>
+      <c r="C25" t="n">
+        <v>3</v>
+      </c>
+      <c r="D25" t="n">
+        <v>32</v>
+      </c>
+      <c r="E25" t="n">
+        <v>65536</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2</v>
+      </c>
+      <c r="G25" t="n">
+        <v>6</v>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
         <v>4</v>
       </c>
-      <c r="C21" t="n">
-        <v>3</v>
-      </c>
-      <c r="D21" t="n">
-        <v>32</v>
-      </c>
-      <c r="E21" t="n">
+      <c r="C26" t="n">
+        <v>3</v>
+      </c>
+      <c r="D26" t="n">
+        <v>32</v>
+      </c>
+      <c r="E26" t="n">
+        <v>65536</v>
+      </c>
+      <c r="F26" t="n">
+        <v>2</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>5</v>
+      </c>
+      <c r="C27" t="n">
+        <v>3</v>
+      </c>
+      <c r="D27" t="n">
+        <v>32</v>
+      </c>
+      <c r="E27" t="n">
+        <v>65536</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2</v>
+      </c>
+      <c r="G27" t="n">
+        <v>5</v>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>6</v>
+      </c>
+      <c r="C28" t="n">
+        <v>3</v>
+      </c>
+      <c r="D28" t="n">
+        <v>32</v>
+      </c>
+      <c r="E28" t="n">
+        <v>65536</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2</v>
+      </c>
+      <c r="G28" t="n">
+        <v>7</v>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>7</v>
+      </c>
+      <c r="C29" t="n">
+        <v>3</v>
+      </c>
+      <c r="D29" t="n">
+        <v>32</v>
+      </c>
+      <c r="E29" t="n">
+        <v>65536</v>
+      </c>
+      <c r="F29" t="n">
+        <v>2</v>
+      </c>
+      <c r="G29" t="n">
+        <v>13</v>
+      </c>
+      <c r="H29" t="n">
+        <v>14</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.28125</v>
+      </c>
+      <c r="J29" t="n">
+        <v>22</v>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>8</v>
+      </c>
+      <c r="C30" t="n">
+        <v>3</v>
+      </c>
+      <c r="D30" t="n">
+        <v>32</v>
+      </c>
+      <c r="E30" t="n">
+        <v>65536</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2</v>
+      </c>
+      <c r="G30" t="n">
+        <v>10</v>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>9</v>
+      </c>
+      <c r="C31" t="n">
+        <v>3</v>
+      </c>
+      <c r="D31" t="n">
+        <v>32</v>
+      </c>
+      <c r="E31" t="n">
+        <v>65536</v>
+      </c>
+      <c r="F31" t="n">
+        <v>2</v>
+      </c>
+      <c r="G31" t="n">
+        <v>14</v>
+      </c>
+      <c r="H31" t="n">
+        <v>14</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>3</v>
+      </c>
+      <c r="D32" t="n">
+        <v>32</v>
+      </c>
+      <c r="E32" t="n">
         <v>131072</v>
       </c>
-      <c r="F21" t="n">
-        <v>2</v>
-      </c>
-      <c r="G21" t="n">
+      <c r="F32" t="n">
+        <v>2</v>
+      </c>
+      <c r="G32" t="n">
+        <v>4</v>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" t="n">
+        <v>3</v>
+      </c>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="n">
+        <v>131072</v>
+      </c>
+      <c r="F33" t="n">
+        <v>2</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>2</v>
+      </c>
+      <c r="C34" t="n">
+        <v>3</v>
+      </c>
+      <c r="D34" t="n">
+        <v>32</v>
+      </c>
+      <c r="E34" t="n">
+        <v>131072</v>
+      </c>
+      <c r="F34" t="n">
+        <v>2</v>
+      </c>
+      <c r="G34" t="n">
+        <v>4</v>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>3</v>
+      </c>
+      <c r="C35" t="n">
+        <v>3</v>
+      </c>
+      <c r="D35" t="n">
+        <v>32</v>
+      </c>
+      <c r="E35" t="n">
+        <v>131072</v>
+      </c>
+      <c r="F35" t="n">
+        <v>2</v>
+      </c>
+      <c r="G35" t="n">
+        <v>2</v>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>4</v>
+      </c>
+      <c r="C36" t="n">
+        <v>3</v>
+      </c>
+      <c r="D36" t="n">
+        <v>32</v>
+      </c>
+      <c r="E36" t="n">
+        <v>131072</v>
+      </c>
+      <c r="F36" t="n">
+        <v>2</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>5</v>
+      </c>
+      <c r="C37" t="n">
+        <v>3</v>
+      </c>
+      <c r="D37" t="n">
+        <v>32</v>
+      </c>
+      <c r="E37" t="n">
+        <v>131072</v>
+      </c>
+      <c r="F37" t="n">
+        <v>2</v>
+      </c>
+      <c r="G37" t="n">
+        <v>2</v>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
         <v>6</v>
       </c>
-      <c r="H21" t="n">
+      <c r="C38" t="n">
+        <v>3</v>
+      </c>
+      <c r="D38" t="n">
+        <v>32</v>
+      </c>
+      <c r="E38" t="n">
+        <v>131072</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2</v>
+      </c>
+      <c r="G38" t="n">
+        <v>3</v>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
         <v>7</v>
       </c>
-      <c r="I21" t="n">
-        <v>0.41015625</v>
-      </c>
-      <c r="J21" t="n">
-        <v>135</v>
-      </c>
-      <c r="K21" t="n">
+      <c r="C39" t="n">
+        <v>3</v>
+      </c>
+      <c r="D39" t="n">
+        <v>32</v>
+      </c>
+      <c r="E39" t="n">
+        <v>131072</v>
+      </c>
+      <c r="F39" t="n">
+        <v>2</v>
+      </c>
+      <c r="G39" t="n">
+        <v>5</v>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.28125</v>
+      </c>
+      <c r="J39" t="n">
+        <v>22</v>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>8</v>
+      </c>
+      <c r="C40" t="n">
+        <v>3</v>
+      </c>
+      <c r="D40" t="n">
+        <v>32</v>
+      </c>
+      <c r="E40" t="n">
+        <v>131072</v>
+      </c>
+      <c r="F40" t="n">
+        <v>2</v>
+      </c>
+      <c r="G40" t="n">
+        <v>4</v>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>9</v>
+      </c>
+      <c r="C41" t="n">
+        <v>3</v>
+      </c>
+      <c r="D41" t="n">
+        <v>32</v>
+      </c>
+      <c r="E41" t="n">
+        <v>131072</v>
+      </c>
+      <c r="F41" t="n">
+        <v>2</v>
+      </c>
+      <c r="G41" t="n">
+        <v>5</v>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="J41" t="n">
+        <v>17</v>
+      </c>
+      <c r="K41" t="n">
         <v>1</v>
       </c>
     </row>
